--- a/data/trans_orig/P2B_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2B_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{679B1DBA-0E78-4966-A7FF-14E86AD342A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15940E4F-C791-49C8-BF0A-16AB10621EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E1850EAF-F9F7-4273-AFF4-0BB668263D61}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4F04976C-EAE6-4FCE-B8DC-9D0F7E0AA9EB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="449">
   <si>
     <t>Hogares con personas que requieren dedicación o cuidados especiales en 2007 (Tasa respuesta: 80,4%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>14,82%</t>
   </si>
   <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
   </si>
   <si>
     <t>14,98%</t>
   </si>
   <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
   </si>
   <si>
     <t>14,9%</t>
   </si>
   <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>85,18%</t>
   </si>
   <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
   </si>
   <si>
     <t>85,02%</t>
   </si>
   <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
   </si>
   <si>
     <t>85,1%</t>
   </si>
   <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>23,64%</t>
   </si>
   <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
   </si>
   <si>
     <t>28,0%</t>
   </si>
   <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
   </si>
   <si>
     <t>25,94%</t>
   </si>
   <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
   </si>
   <si>
     <t>76,36%</t>
   </si>
   <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
   </si>
   <si>
     <t>72,0%</t>
   </si>
   <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
   </si>
   <si>
     <t>74,06%</t>
   </si>
   <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -197,55 +197,55 @@
     <t>22,67%</t>
   </si>
   <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
   </si>
   <si>
     <t>25,78%</t>
   </si>
   <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
   </si>
   <si>
     <t>24,33%</t>
   </si>
   <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
   </si>
   <si>
     <t>77,33%</t>
   </si>
   <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
   </si>
   <si>
     <t>74,22%</t>
   </si>
   <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
   </si>
   <si>
     <t>75,67%</t>
   </si>
   <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -254,55 +254,55 @@
     <t>21,08%</t>
   </si>
   <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
   </si>
   <si>
     <t>25,5%</t>
   </si>
   <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
   </si>
   <si>
     <t>23,43%</t>
   </si>
   <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
   </si>
   <si>
     <t>78,92%</t>
   </si>
   <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
   </si>
   <si>
     <t>74,5%</t>
   </si>
   <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
   </si>
   <si>
     <t>76,57%</t>
   </si>
   <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -311,1045 +311,1081 @@
     <t>21,27%</t>
   </si>
   <si>
-    <t>17,94%</t>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
   </si>
   <si>
     <t>24,25%</t>
   </si>
   <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2012 (Tasa respuesta: 84,23%)</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2015 (Tasa respuesta: 78,58%)</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2023 (Tasa respuesta: 77,47%)</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
   </si>
   <si>
     <t>30,41%</t>
   </si>
   <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
   </si>
   <si>
     <t>69,59%</t>
   </si>
   <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2012 (Tasa respuesta: 84,23%)</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2015 (Tasa respuesta: 78,58%)</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2023 (Tasa respuesta: 77,47%)</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
   </si>
   <si>
     <t>20,89%</t>
   </si>
   <si>
-    <t>17,45%</t>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
   </si>
   <si>
     <t>24,77%</t>
   </si>
   <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
   </si>
   <si>
     <t>23,11%</t>
   </si>
   <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
   </si>
   <si>
     <t>79,11%</t>
   </si>
   <si>
-    <t>82,55%</t>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
   </si>
   <si>
     <t>75,23%</t>
   </si>
   <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
   </si>
   <si>
     <t>76,89%</t>
   </si>
   <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
   </si>
   <si>
     <t>23,87%</t>
   </si>
   <si>
-    <t>25,85%</t>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
   </si>
   <si>
     <t>30,24%</t>
   </si>
   <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
   </si>
   <si>
     <t>27,49%</t>
   </si>
   <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
   </si>
   <si>
     <t>76,13%</t>
   </si>
   <si>
-    <t>74,15%</t>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
   </si>
   <si>
     <t>69,76%</t>
   </si>
   <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
   </si>
   <si>
     <t>72,51%</t>
   </si>
   <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
   </si>
 </sst>
 </file>
@@ -1761,7 +1797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D6BD64-7F93-4596-B869-45EC416E22DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9340B5A1-E9C1-4F11-95B5-1F3BC37B8F8F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2824,7 +2860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3251787-7168-4F1F-AB7D-71ADDEFACEB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB19751-326B-4AB3-9CA3-F4ACAA482FF0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3735,7 +3771,7 @@
         <v>1583</v>
       </c>
       <c r="I19" s="7">
-        <v>1702448</v>
+        <v>1702449</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>219</v>
@@ -3837,7 +3873,7 @@
         <v>2913</v>
       </c>
       <c r="I21" s="7">
-        <v>3143581</v>
+        <v>3143582</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3887,7 +3923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5AF6F5-2FEA-45D3-BF77-9B0580ED2CF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8BBB17-4B85-4C33-8B9D-C0D6572DF607}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4667,7 +4703,7 @@
         <v>313</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,13 +4718,13 @@
         <v>409460</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H17" s="7">
         <v>404</v>
@@ -4697,13 +4733,13 @@
         <v>446107</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M17" s="7">
         <v>818</v>
@@ -4712,13 +4748,13 @@
         <v>855567</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4822,13 @@
         <v>1040119</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H19" s="7">
         <v>1306</v>
@@ -4801,13 +4837,13 @@
         <v>1386818</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M19" s="7">
         <v>2302</v>
@@ -4816,13 +4852,13 @@
         <v>2426937</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>330</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4873,13 @@
         <v>1458874</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H20" s="7">
         <v>1455</v>
@@ -4852,13 +4888,13 @@
         <v>1566305</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M20" s="7">
         <v>2860</v>
@@ -4867,10 +4903,10 @@
         <v>3025179</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>338</v>
+        <v>185</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>339</v>
@@ -4950,7 +4986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCE0B01-4823-462F-9510-CA3240EEAF8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBED6F7F-86B9-4B06-AC48-7A63A5E5F486}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5417,10 +5453,10 @@
         <v>383</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>40</v>
+        <v>384</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,13 +5471,13 @@
         <v>485034</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H11" s="7">
         <v>829</v>
@@ -5450,13 +5486,13 @@
         <v>539451</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M11" s="7">
         <v>1336</v>
@@ -5465,13 +5501,13 @@
         <v>1024485</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>48</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,13 +5575,13 @@
         <v>115580</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H13" s="7">
         <v>195</v>
@@ -5554,13 +5590,13 @@
         <v>254515</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="M13" s="7">
         <v>304</v>
@@ -5569,13 +5605,13 @@
         <v>370096</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>401</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>55</v>
+        <v>402</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5590,13 +5626,13 @@
         <v>392307</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="H14" s="7">
         <v>659</v>
@@ -5605,13 +5641,13 @@
         <v>454744</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="M14" s="7">
         <v>1056</v>
@@ -5620,13 +5656,13 @@
         <v>847050</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>410</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>65</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,13 +5730,13 @@
         <v>133986</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>36</v>
+        <v>415</v>
       </c>
       <c r="H16" s="7">
         <v>307</v>
@@ -5709,13 +5745,13 @@
         <v>212664</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="M16" s="7">
         <v>461</v>
@@ -5724,13 +5760,13 @@
         <v>346651</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,13 +5781,13 @@
         <v>507433</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>46</v>
+        <v>423</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="H17" s="7">
         <v>913</v>
@@ -5760,13 +5796,13 @@
         <v>645864</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="M17" s="7">
         <v>1485</v>
@@ -5775,13 +5811,13 @@
         <v>1153297</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,13 +5885,13 @@
         <v>537288</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>16</v>
+        <v>432</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="H19" s="7">
         <v>1166</v>
@@ -5864,13 +5900,13 @@
         <v>898854</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="M19" s="7">
         <v>1745</v>
@@ -5879,13 +5915,13 @@
         <v>1436142</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,13 +5936,13 @@
         <v>1713576</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>25</v>
+        <v>442</v>
       </c>
       <c r="H20" s="7">
         <v>3145</v>
@@ -5915,13 +5951,13 @@
         <v>2073673</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="M20" s="7">
         <v>5028</v>
@@ -5930,13 +5966,13 @@
         <v>3787249</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P2B_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2B_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15940E4F-C791-49C8-BF0A-16AB10621EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71D8DFAC-3101-4A97-8B12-BD3F1B2CC6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4F04976C-EAE6-4FCE-B8DC-9D0F7E0AA9EB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3EB24AAC-A2B3-41B1-B4E7-CC1D42ED3BF3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="443">
   <si>
     <t>Hogares con personas que requieren dedicación o cuidados especiales en 2007 (Tasa respuesta: 80,4%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,28 +77,28 @@
     <t>14,82%</t>
   </si>
   <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
   </si>
   <si>
     <t>14,98%</t>
   </si>
   <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
   </si>
   <si>
     <t>14,9%</t>
   </si>
   <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,202 +107,196 @@
     <t>85,18%</t>
   </si>
   <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
   </si>
   <si>
     <t>85,02%</t>
   </si>
   <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
   </si>
   <si>
     <t>85,1%</t>
   </si>
   <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>23,64%</t>
   </si>
   <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
   </si>
   <si>
     <t>28,0%</t>
   </si>
   <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
   </si>
   <si>
     <t>25,94%</t>
   </si>
   <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
   </si>
   <si>
     <t>76,36%</t>
   </si>
   <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
   </si>
   <si>
     <t>72,0%</t>
   </si>
   <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
   </si>
   <si>
     <t>74,06%</t>
   </si>
   <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>22,67%</t>
   </si>
   <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
   </si>
   <si>
     <t>25,78%</t>
   </si>
   <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
   </si>
   <si>
     <t>24,33%</t>
   </si>
   <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
   </si>
   <si>
     <t>77,33%</t>
   </si>
   <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
   </si>
   <si>
     <t>74,22%</t>
   </si>
   <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
   </si>
   <si>
     <t>75,67%</t>
   </si>
   <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>21,08%</t>
   </si>
   <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
   </si>
   <si>
     <t>25,5%</t>
   </si>
   <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
+    <t>29,04%</t>
   </si>
   <si>
     <t>23,43%</t>
   </si>
   <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
   </si>
   <si>
     <t>78,92%</t>
   </si>
   <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
   </si>
   <si>
     <t>74,5%</t>
   </si>
   <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
+    <t>70,96%</t>
   </si>
   <si>
     <t>76,57%</t>
   </si>
   <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -311,109 +305,109 @@
     <t>21,27%</t>
   </si>
   <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
   </si>
   <si>
     <t>27,29%</t>
   </si>
   <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
   </si>
   <si>
     <t>24,64%</t>
   </si>
   <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
   </si>
   <si>
     <t>78,73%</t>
   </si>
   <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
   </si>
   <si>
     <t>72,71%</t>
   </si>
   <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
   </si>
   <si>
     <t>75,36%</t>
   </si>
   <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
   </si>
   <si>
     <t>21,83%</t>
   </si>
   <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
   </si>
   <si>
     <t>26,19%</t>
   </si>
   <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
   </si>
   <si>
     <t>24,18%</t>
   </si>
   <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
   </si>
   <si>
     <t>78,17%</t>
   </si>
   <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
   </si>
   <si>
     <t>73,81%</t>
   </si>
   <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
   </si>
   <si>
     <t>75,82%</t>
   </si>
   <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -425,640 +419,634 @@
     <t>51,62%</t>
   </si>
   <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
   </si>
   <si>
     <t>48,2%</t>
   </si>
   <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
   </si>
   <si>
     <t>49,85%</t>
   </si>
   <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
   </si>
   <si>
     <t>48,38%</t>
   </si>
   <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
   </si>
   <si>
     <t>51,8%</t>
   </si>
   <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
   </si>
   <si>
     <t>50,15%</t>
   </si>
   <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
   </si>
   <si>
     <t>53,16%</t>
   </si>
   <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
   </si>
   <si>
     <t>56,69%</t>
   </si>
   <si>
-    <t>52,48%</t>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2016 (Tasa respuesta: 78,58%)</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
   </si>
   <si>
     <t>61,35%</t>
   </si>
   <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2015 (Tasa respuesta: 78,58%)</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
+    <t>69,75%</t>
   </si>
   <si>
     <t>59,04%</t>
   </si>
   <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
   </si>
   <si>
     <t>62,16%</t>
   </si>
   <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
   </si>
   <si>
     <t>40,21%</t>
   </si>
   <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
   </si>
   <si>
     <t>47,74%</t>
   </si>
   <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
   </si>
   <si>
     <t>44,39%</t>
   </si>
   <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
   </si>
   <si>
     <t>59,79%</t>
   </si>
   <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
   </si>
   <si>
     <t>52,26%</t>
   </si>
   <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
   </si>
   <si>
     <t>55,61%</t>
   </si>
   <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
   </si>
   <si>
     <t>41,62%</t>
   </si>
   <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
   </si>
   <si>
     <t>46,96%</t>
   </si>
   <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
   </si>
   <si>
     <t>44,51%</t>
   </si>
   <si>
-    <t>43,19%</t>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
   </si>
   <si>
     <t>58,38%</t>
   </si>
   <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
   </si>
   <si>
     <t>53,04%</t>
   </si>
   <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
   </si>
   <si>
     <t>55,49%</t>
   </si>
   <si>
-    <t>56,81%</t>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
   </si>
   <si>
     <t>Hogares con personas que requieren dedicación o cuidados especiales en 2023 (Tasa respuesta: 77,47%)</t>
@@ -1298,9 +1286,6 @@
     <t>27,76%</t>
   </si>
   <si>
-    <t>23,11%</t>
-  </si>
-  <si>
     <t>21,06%</t>
   </si>
   <si>
@@ -1323,9 +1308,6 @@
   </si>
   <si>
     <t>78,06%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
   </si>
   <si>
     <t>74,69%</t>
@@ -1797,7 +1779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9340B5A1-E9C1-4F11-95B5-1F3BC37B8F8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1817D3EF-0280-42B7-8B09-A71133AE158C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2404,10 +2386,10 @@
         <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>255</v>
@@ -2416,13 +2398,13 @@
         <v>256926</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2437,13 +2419,13 @@
         <v>405537</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>442</v>
@@ -2452,13 +2434,13 @@
         <v>434203</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="M14" s="7">
         <v>832</v>
@@ -2467,13 +2449,13 @@
         <v>839740</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2529,7 +2511,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2541,13 +2523,13 @@
         <v>143061</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>225</v>
@@ -2556,13 +2538,13 @@
         <v>233706</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>375</v>
@@ -2571,13 +2553,13 @@
         <v>376768</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2592,13 +2574,13 @@
         <v>529613</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>598</v>
@@ -2607,13 +2589,13 @@
         <v>622749</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1161</v>
@@ -2622,13 +2604,13 @@
         <v>1152362</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,13 +2678,13 @@
         <v>538090</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>727</v>
@@ -2711,13 +2693,13 @@
         <v>752521</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>1251</v>
@@ -2726,13 +2708,13 @@
         <v>1290610</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,13 +2729,13 @@
         <v>1926392</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>2072</v>
@@ -2762,13 +2744,13 @@
         <v>2120933</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>3984</v>
@@ -2777,13 +2759,13 @@
         <v>4047326</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2839,7 +2821,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2860,7 +2842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB19751-326B-4AB3-9CA3-F4ACAA482FF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5281E454-EC62-4BF4-9F53-2917622F9FB2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2877,7 +2859,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2984,13 +2966,13 @@
         <v>49693</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
@@ -2999,13 +2981,13 @@
         <v>49848</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>97</v>
@@ -3014,13 +2996,13 @@
         <v>99542</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3035,13 +3017,13 @@
         <v>46568</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>49</v>
@@ -3050,13 +3032,13 @@
         <v>53573</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>95</v>
@@ -3065,13 +3047,13 @@
         <v>100140</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3139,13 +3121,13 @@
         <v>261751</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>276</v>
@@ -3154,13 +3136,13 @@
         <v>291103</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>517</v>
@@ -3169,13 +3151,13 @@
         <v>552855</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3190,13 +3172,13 @@
         <v>230668</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>209</v>
@@ -3205,13 +3187,13 @@
         <v>222418</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>428</v>
@@ -3220,13 +3202,13 @@
         <v>453085</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3294,13 +3276,13 @@
         <v>451281</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>470</v>
@@ -3309,13 +3291,13 @@
         <v>518653</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>888</v>
@@ -3324,13 +3306,13 @@
         <v>969934</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3345,13 +3327,13 @@
         <v>371017</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>368</v>
@@ -3360,13 +3342,13 @@
         <v>400434</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>705</v>
@@ -3375,13 +3357,13 @@
         <v>771451</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,13 +3431,13 @@
         <v>324591</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>366</v>
@@ -3464,13 +3446,13 @@
         <v>398506</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>664</v>
@@ -3479,13 +3461,13 @@
         <v>723096</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,13 +3482,13 @@
         <v>264262</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>255</v>
@@ -3515,13 +3497,13 @@
         <v>289749</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>491</v>
@@ -3530,13 +3512,13 @@
         <v>554012</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,7 +3574,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3604,13 +3586,13 @@
         <v>336332</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="H16" s="7">
         <v>429</v>
@@ -3619,13 +3601,13 @@
         <v>444338</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M16" s="7">
         <v>752</v>
@@ -3634,13 +3616,13 @@
         <v>780670</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,13 +3637,13 @@
         <v>412059</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>449</v>
@@ -3670,13 +3652,13 @@
         <v>474959</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>844</v>
@@ -3685,13 +3667,13 @@
         <v>887018</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3759,28 +3741,28 @@
         <v>1423649</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H19" s="7">
         <v>1583</v>
       </c>
       <c r="I19" s="7">
-        <v>1702449</v>
+        <v>1702448</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M19" s="7">
         <v>2918</v>
@@ -3789,13 +3771,13 @@
         <v>3126097</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>222</v>
+        <v>165</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3810,13 +3792,13 @@
         <v>1324573</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H20" s="7">
         <v>1330</v>
@@ -3825,13 +3807,13 @@
         <v>1441133</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M20" s="7">
         <v>2563</v>
@@ -3840,13 +3822,13 @@
         <v>2765706</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,7 +3855,7 @@
         <v>2913</v>
       </c>
       <c r="I21" s="7">
-        <v>3143582</v>
+        <v>3143581</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3902,7 +3884,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3923,7 +3905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8BBB17-4B85-4C33-8B9D-C0D6572DF607}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E410D3-D56C-4318-8CAC-433703033072}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3940,7 +3922,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4047,13 +4029,13 @@
         <v>36660</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>49</v>
@@ -4062,13 +4044,13 @@
         <v>49395</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>86</v>
@@ -4077,13 +4059,13 @@
         <v>86055</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,13 +4080,13 @@
         <v>46318</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>50</v>
@@ -4113,13 +4095,13 @@
         <v>48562</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>96</v>
@@ -4128,13 +4110,13 @@
         <v>94880</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,13 +4184,13 @@
         <v>209803</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H7" s="7">
         <v>216</v>
@@ -4217,13 +4199,13 @@
         <v>222319</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="M7" s="7">
         <v>416</v>
@@ -4232,13 +4214,13 @@
         <v>432122</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4235,13 @@
         <v>213575</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H8" s="7">
         <v>233</v>
@@ -4268,13 +4250,13 @@
         <v>238681</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>443</v>
@@ -4283,13 +4265,13 @@
         <v>452256</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4357,13 +4339,13 @@
         <v>331500</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H10" s="7">
         <v>420</v>
@@ -4372,13 +4354,13 @@
         <v>445382</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M10" s="7">
         <v>731</v>
@@ -4387,13 +4369,13 @@
         <v>776882</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,13 +4390,13 @@
         <v>429883</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H11" s="7">
         <v>421</v>
@@ -4423,13 +4405,13 @@
         <v>455131</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M11" s="7">
         <v>825</v>
@@ -4438,13 +4420,13 @@
         <v>885014</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,13 +4494,13 @@
         <v>186804</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H13" s="7">
         <v>248</v>
@@ -4527,13 +4509,13 @@
         <v>262132</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="M13" s="7">
         <v>423</v>
@@ -4542,13 +4524,13 @@
         <v>448936</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,13 +4545,13 @@
         <v>359638</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H14" s="7">
         <v>347</v>
@@ -4578,13 +4560,13 @@
         <v>377824</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="M14" s="7">
         <v>678</v>
@@ -4593,13 +4575,13 @@
         <v>737462</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,7 +4637,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4667,13 +4649,13 @@
         <v>275351</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H16" s="7">
         <v>373</v>
@@ -4682,13 +4664,13 @@
         <v>407590</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="M16" s="7">
         <v>646</v>
@@ -4697,13 +4679,13 @@
         <v>682941</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +4700,13 @@
         <v>409460</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H17" s="7">
         <v>404</v>
@@ -4733,13 +4715,13 @@
         <v>446107</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="M17" s="7">
         <v>818</v>
@@ -4748,13 +4730,13 @@
         <v>855567</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,13 +4804,13 @@
         <v>1040119</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="H19" s="7">
         <v>1306</v>
@@ -4837,13 +4819,13 @@
         <v>1386818</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="M19" s="7">
         <v>2302</v>
@@ -4852,13 +4834,13 @@
         <v>2426937</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>195</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +4855,13 @@
         <v>1458874</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H20" s="7">
         <v>1455</v>
@@ -4888,13 +4870,13 @@
         <v>1566305</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="M20" s="7">
         <v>2860</v>
@@ -4903,13 +4885,13 @@
         <v>3025179</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>185</v>
+        <v>334</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,7 +4947,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4986,7 +4968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBED6F7F-86B9-4B06-AC48-7A63A5E5F486}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014D50AA-271B-422F-9BB8-6AB5616CD540}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5003,7 +4985,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5110,13 +5092,13 @@
         <v>11127</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H4" s="7">
         <v>47</v>
@@ -5125,13 +5107,13 @@
         <v>21725</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M4" s="7">
         <v>60</v>
@@ -5140,13 +5122,13 @@
         <v>32852</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5161,13 +5143,13 @@
         <v>60640</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H5" s="7">
         <v>149</v>
@@ -5176,13 +5158,13 @@
         <v>75098</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M5" s="7">
         <v>223</v>
@@ -5191,13 +5173,13 @@
         <v>135738</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,13 +5247,13 @@
         <v>96193</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H7" s="7">
         <v>216</v>
@@ -5280,13 +5262,13 @@
         <v>127252</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="M7" s="7">
         <v>328</v>
@@ -5295,13 +5277,13 @@
         <v>223446</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,13 +5298,13 @@
         <v>268163</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H8" s="7">
         <v>595</v>
@@ -5331,13 +5313,13 @@
         <v>358516</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="M8" s="7">
         <v>928</v>
@@ -5346,13 +5328,13 @@
         <v>626678</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5420,13 +5402,13 @@
         <v>180401</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H10" s="7">
         <v>401</v>
@@ -5435,13 +5417,13 @@
         <v>282697</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="M10" s="7">
         <v>592</v>
@@ -5450,13 +5432,13 @@
         <v>463098</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,13 +5453,13 @@
         <v>485034</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H11" s="7">
         <v>829</v>
@@ -5486,13 +5468,13 @@
         <v>539451</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M11" s="7">
         <v>1336</v>
@@ -5501,13 +5483,13 @@
         <v>1024485</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5575,13 +5557,13 @@
         <v>115580</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H13" s="7">
         <v>195</v>
@@ -5590,13 +5572,13 @@
         <v>254515</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M13" s="7">
         <v>304</v>
@@ -5605,13 +5587,13 @@
         <v>370096</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5626,13 +5608,13 @@
         <v>392307</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H14" s="7">
         <v>659</v>
@@ -5641,13 +5623,13 @@
         <v>454744</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="M14" s="7">
         <v>1056</v>
@@ -5656,13 +5638,13 @@
         <v>847050</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,7 +5700,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5730,13 +5712,13 @@
         <v>133986</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H16" s="7">
         <v>307</v>
@@ -5745,13 +5727,13 @@
         <v>212664</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M16" s="7">
         <v>461</v>
@@ -5760,13 +5742,13 @@
         <v>346651</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>419</v>
+        <v>39</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5781,13 +5763,13 @@
         <v>507433</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="H17" s="7">
         <v>913</v>
@@ -5796,13 +5778,13 @@
         <v>645864</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="M17" s="7">
         <v>1485</v>
@@ -5811,13 +5793,13 @@
         <v>1153297</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>428</v>
+        <v>49</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,13 +5867,13 @@
         <v>537288</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="H19" s="7">
         <v>1166</v>
@@ -5900,13 +5882,13 @@
         <v>898854</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="M19" s="7">
         <v>1745</v>
@@ -5915,13 +5897,13 @@
         <v>1436142</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5936,13 +5918,13 @@
         <v>1713576</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="H20" s="7">
         <v>3145</v>
@@ -5951,13 +5933,13 @@
         <v>2073673</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="M20" s="7">
         <v>5028</v>
@@ -5966,13 +5948,13 @@
         <v>3787249</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6028,7 +6010,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2B_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2B_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71D8DFAC-3101-4A97-8B12-BD3F1B2CC6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AA75474-9DAD-4EE5-B295-B7747295598A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3EB24AAC-A2B3-41B1-B4E7-CC1D42ED3BF3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C70DBBE1-225E-403E-9150-575781972856}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="443">
-  <si>
-    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2007 (Tasa respuesta: 80,4%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="437">
+  <si>
+    <t>Hogares según si tienen personas que requieren dedicación o cuidados especiales en 2007 (Tasa respuesta: 80,4%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,28 +77,28 @@
     <t>14,82%</t>
   </si>
   <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
   </si>
   <si>
     <t>14,98%</t>
   </si>
   <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
   </si>
   <si>
     <t>14,9%</t>
   </si>
   <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>85,18%</t>
   </si>
   <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
   </si>
   <si>
     <t>85,02%</t>
   </si>
   <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
   </si>
   <si>
     <t>85,1%</t>
   </si>
   <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1234 +140,1216 @@
     <t>23,64%</t>
   </si>
   <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
   </si>
   <si>
     <t>28,0%</t>
   </si>
   <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
   </si>
   <si>
     <t>25,94%</t>
   </si>
   <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas que requieren dedicación o cuidados especiales en 2012 (Tasa respuesta: 84,23%)</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas que requieren dedicación o cuidados especiales en 2016 (Tasa respuesta: 78,58%)</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas que requieren dedicación o cuidados especiales en 2023 (Tasa respuesta: 77,47%)</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
     <t>23,11%</t>
   </si>
   <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
   </si>
   <si>
     <t>76,89%</t>
   </si>
   <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2012 (Tasa respuesta: 84,23%)</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2016 (Tasa respuesta: 78,58%)</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2023 (Tasa respuesta: 77,47%)</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
   </si>
   <si>
     <t>23,87%</t>
   </si>
   <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
+    <t>25,85%</t>
   </si>
   <si>
     <t>30,24%</t>
   </si>
   <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
   </si>
   <si>
     <t>27,49%</t>
   </si>
   <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
   </si>
   <si>
     <t>76,13%</t>
   </si>
   <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
+    <t>74,15%</t>
   </si>
   <si>
     <t>69,76%</t>
   </si>
   <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
   </si>
   <si>
     <t>72,51%</t>
   </si>
   <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
   </si>
 </sst>
 </file>
@@ -1779,7 +1761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1817D3EF-0280-42B7-8B09-A71133AE158C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC64B51-2BAC-4A73-AC27-643D2F65AE9A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2386,10 +2368,10 @@
         <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>255</v>
@@ -2398,13 +2380,13 @@
         <v>256926</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2419,13 +2401,13 @@
         <v>405537</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>442</v>
@@ -2434,13 +2416,13 @@
         <v>434203</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>832</v>
@@ -2449,13 +2431,13 @@
         <v>839740</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2511,7 +2493,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2523,13 +2505,13 @@
         <v>143061</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>225</v>
@@ -2538,13 +2520,13 @@
         <v>233706</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>375</v>
@@ -2553,13 +2535,13 @@
         <v>376768</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2574,13 +2556,13 @@
         <v>529613</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>598</v>
@@ -2589,13 +2571,13 @@
         <v>622749</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1161</v>
@@ -2604,13 +2586,13 @@
         <v>1152362</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,13 +2660,13 @@
         <v>538090</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>727</v>
@@ -2693,13 +2675,13 @@
         <v>752521</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>1251</v>
@@ -2708,13 +2690,13 @@
         <v>1290610</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,13 +2711,13 @@
         <v>1926392</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>2072</v>
@@ -2744,13 +2726,13 @@
         <v>2120933</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>3984</v>
@@ -2759,13 +2741,13 @@
         <v>4047326</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2821,7 +2803,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2842,7 +2824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5281E454-EC62-4BF4-9F53-2917622F9FB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8173ED69-3D9F-4BD8-A50D-B71E1294CE51}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2859,7 +2841,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2966,13 +2948,13 @@
         <v>49693</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
@@ -2981,13 +2963,13 @@
         <v>49848</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>97</v>
@@ -2996,13 +2978,13 @@
         <v>99542</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,13 +2999,13 @@
         <v>46568</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>49</v>
@@ -3032,13 +3014,13 @@
         <v>53573</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>95</v>
@@ -3047,13 +3029,13 @@
         <v>100140</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,13 +3103,13 @@
         <v>261751</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>276</v>
@@ -3136,13 +3118,13 @@
         <v>291103</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>517</v>
@@ -3151,13 +3133,13 @@
         <v>552855</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,13 +3154,13 @@
         <v>230668</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>209</v>
@@ -3187,13 +3169,13 @@
         <v>222418</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>428</v>
@@ -3202,13 +3184,13 @@
         <v>453085</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,13 +3258,13 @@
         <v>451281</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>470</v>
@@ -3291,13 +3273,13 @@
         <v>518653</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>888</v>
@@ -3306,13 +3288,13 @@
         <v>969934</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,13 +3309,13 @@
         <v>371017</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>368</v>
@@ -3342,13 +3324,13 @@
         <v>400434</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>705</v>
@@ -3357,13 +3339,13 @@
         <v>771451</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,13 +3413,13 @@
         <v>324591</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>366</v>
@@ -3446,13 +3428,13 @@
         <v>398506</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>664</v>
@@ -3461,13 +3443,13 @@
         <v>723096</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,13 +3464,13 @@
         <v>264262</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>255</v>
@@ -3497,13 +3479,13 @@
         <v>289749</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>491</v>
@@ -3512,13 +3494,13 @@
         <v>554012</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,7 +3556,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3586,13 +3568,13 @@
         <v>336332</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>429</v>
@@ -3601,13 +3583,13 @@
         <v>444338</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M16" s="7">
         <v>752</v>
@@ -3616,13 +3598,13 @@
         <v>780670</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,13 +3619,13 @@
         <v>412059</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>449</v>
@@ -3652,13 +3634,13 @@
         <v>474959</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>844</v>
@@ -3667,13 +3649,13 @@
         <v>887018</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,13 +3723,13 @@
         <v>1423649</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H19" s="7">
         <v>1583</v>
@@ -3756,13 +3738,13 @@
         <v>1702448</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M19" s="7">
         <v>2918</v>
@@ -3771,13 +3753,13 @@
         <v>3126097</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,13 +3774,13 @@
         <v>1324573</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H20" s="7">
         <v>1330</v>
@@ -3807,13 +3789,13 @@
         <v>1441133</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>2563</v>
@@ -3822,13 +3804,13 @@
         <v>2765706</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,7 +3866,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3905,7 +3887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E410D3-D56C-4318-8CAC-433703033072}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2AA4725-3744-4C3C-AD2E-2A0CF680EADB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3922,7 +3904,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4029,13 +4011,13 @@
         <v>36660</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>49</v>
@@ -4044,13 +4026,13 @@
         <v>49395</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="M4" s="7">
         <v>86</v>
@@ -4059,13 +4041,13 @@
         <v>86055</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,13 +4062,13 @@
         <v>46318</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H5" s="7">
         <v>50</v>
@@ -4095,13 +4077,13 @@
         <v>48562</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="M5" s="7">
         <v>96</v>
@@ -4110,13 +4092,13 @@
         <v>94880</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4166,13 @@
         <v>209803</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="H7" s="7">
         <v>216</v>
@@ -4199,13 +4181,13 @@
         <v>222319</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="M7" s="7">
         <v>416</v>
@@ -4214,13 +4196,13 @@
         <v>432122</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4217,13 @@
         <v>213575</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="H8" s="7">
         <v>233</v>
@@ -4250,13 +4232,13 @@
         <v>238681</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="M8" s="7">
         <v>443</v>
@@ -4265,13 +4247,13 @@
         <v>452256</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4321,13 @@
         <v>331500</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="H10" s="7">
         <v>420</v>
@@ -4354,13 +4336,13 @@
         <v>445382</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="M10" s="7">
         <v>731</v>
@@ -4369,13 +4351,13 @@
         <v>776882</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4372,13 @@
         <v>429883</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H11" s="7">
         <v>421</v>
@@ -4405,13 +4387,13 @@
         <v>455131</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="M11" s="7">
         <v>825</v>
@@ -4420,13 +4402,13 @@
         <v>885014</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,13 +4476,13 @@
         <v>186804</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="H13" s="7">
         <v>248</v>
@@ -4509,13 +4491,13 @@
         <v>262132</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="M13" s="7">
         <v>423</v>
@@ -4524,13 +4506,13 @@
         <v>448936</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4527,13 @@
         <v>359638</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="H14" s="7">
         <v>347</v>
@@ -4560,13 +4542,13 @@
         <v>377824</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="M14" s="7">
         <v>678</v>
@@ -4575,13 +4557,13 @@
         <v>737462</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,7 +4619,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4649,13 +4631,13 @@
         <v>275351</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H16" s="7">
         <v>373</v>
@@ -4664,13 +4646,13 @@
         <v>407590</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="M16" s="7">
         <v>646</v>
@@ -4679,13 +4661,13 @@
         <v>682941</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,13 +4682,13 @@
         <v>409460</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H17" s="7">
         <v>404</v>
@@ -4715,13 +4697,13 @@
         <v>446107</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="M17" s="7">
         <v>818</v>
@@ -4730,13 +4712,13 @@
         <v>855567</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,13 +4786,13 @@
         <v>1040119</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H19" s="7">
         <v>1306</v>
@@ -4819,13 +4801,13 @@
         <v>1386818</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M19" s="7">
         <v>2302</v>
@@ -4834,13 +4816,13 @@
         <v>2426937</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4855,13 +4837,13 @@
         <v>1458874</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H20" s="7">
         <v>1455</v>
@@ -4870,13 +4852,13 @@
         <v>1566305</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M20" s="7">
         <v>2860</v>
@@ -4885,13 +4867,13 @@
         <v>3025179</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,7 +4929,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4968,7 +4950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014D50AA-271B-422F-9BB8-6AB5616CD540}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3022EC-DE5F-4987-B9D8-1F850B94453E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4985,7 +4967,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5092,13 +5074,13 @@
         <v>11127</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="H4" s="7">
         <v>47</v>
@@ -5107,13 +5089,13 @@
         <v>21725</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="M4" s="7">
         <v>60</v>
@@ -5122,13 +5104,13 @@
         <v>32852</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,13 +5125,13 @@
         <v>60640</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="H5" s="7">
         <v>149</v>
@@ -5158,13 +5140,13 @@
         <v>75098</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="M5" s="7">
         <v>223</v>
@@ -5173,13 +5155,13 @@
         <v>135738</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5229,13 @@
         <v>96193</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H7" s="7">
         <v>216</v>
@@ -5262,13 +5244,13 @@
         <v>127252</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="M7" s="7">
         <v>328</v>
@@ -5277,13 +5259,13 @@
         <v>223446</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,13 +5280,13 @@
         <v>268163</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H8" s="7">
         <v>595</v>
@@ -5313,13 +5295,13 @@
         <v>358516</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="M8" s="7">
         <v>928</v>
@@ -5328,13 +5310,13 @@
         <v>626678</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,13 +5384,13 @@
         <v>180401</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="H10" s="7">
         <v>401</v>
@@ -5417,13 +5399,13 @@
         <v>282697</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="M10" s="7">
         <v>592</v>
@@ -5432,13 +5414,13 @@
         <v>463098</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>380</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,13 +5435,13 @@
         <v>485034</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="H11" s="7">
         <v>829</v>
@@ -5468,13 +5450,13 @@
         <v>539451</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="M11" s="7">
         <v>1336</v>
@@ -5483,13 +5465,13 @@
         <v>1024485</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>390</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5557,13 +5539,13 @@
         <v>115580</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H13" s="7">
         <v>195</v>
@@ -5572,13 +5554,13 @@
         <v>254515</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="M13" s="7">
         <v>304</v>
@@ -5587,13 +5569,13 @@
         <v>370096</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>397</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,13 +5590,13 @@
         <v>392307</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="H14" s="7">
         <v>659</v>
@@ -5623,13 +5605,13 @@
         <v>454744</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="M14" s="7">
         <v>1056</v>
@@ -5638,13 +5620,13 @@
         <v>847050</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>406</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>408</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,7 +5682,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5712,13 +5694,13 @@
         <v>133986</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>411</v>
+        <v>36</v>
       </c>
       <c r="H16" s="7">
         <v>307</v>
@@ -5727,13 +5709,13 @@
         <v>212664</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="M16" s="7">
         <v>461</v>
@@ -5742,13 +5724,13 @@
         <v>346651</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>39</v>
+        <v>410</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,13 +5745,13 @@
         <v>507433</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>418</v>
+        <v>46</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="H17" s="7">
         <v>913</v>
@@ -5778,13 +5760,13 @@
         <v>645864</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="M17" s="7">
         <v>1485</v>
@@ -5793,13 +5775,13 @@
         <v>1153297</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>49</v>
+        <v>418</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,13 +5849,13 @@
         <v>537288</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>426</v>
+        <v>16</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H19" s="7">
         <v>1166</v>
@@ -5882,13 +5864,13 @@
         <v>898854</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="M19" s="7">
         <v>1745</v>
@@ -5897,13 +5879,13 @@
         <v>1436142</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,13 +5900,13 @@
         <v>1713576</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>436</v>
+        <v>25</v>
       </c>
       <c r="H20" s="7">
         <v>3145</v>
@@ -5933,13 +5915,13 @@
         <v>2073673</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="M20" s="7">
         <v>5028</v>
@@ -5948,13 +5930,13 @@
         <v>3787249</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6010,7 +5992,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2B_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2B_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AA75474-9DAD-4EE5-B295-B7747295598A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C87C34F6-3CF6-44A0-9E00-CA5E832DCC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C70DBBE1-225E-403E-9150-575781972856}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1BF880D8-5FC0-496E-ABDA-423B77F03A8F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="370">
   <si>
     <t>Hogares según si tienen personas que requieren dedicación o cuidados especiales en 2007 (Tasa respuesta: 80,4%)</t>
   </si>
@@ -68,129 +68,72 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -248,7 +191,7 @@
     <t>77,77%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>21,08%</t>
@@ -422,934 +365,790 @@
     <t>Hogares según si tienen personas que requieren dedicación o cuidados especiales en 2012 (Tasa respuesta: 84,23%)</t>
   </si>
   <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
   </si>
   <si>
     <t>48,2%</t>
   </si>
   <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas que requieren dedicación o cuidados especiales en 2016 (Tasa respuesta: 78,58%)</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas que requieren dedicación o cuidados especiales en 2023 (Tasa respuesta: 77,47%)</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
   </si>
   <si>
     <t>57,45%</t>
   </si>
   <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas que requieren dedicación o cuidados especiales en 2016 (Tasa respuesta: 78,58%)</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas que requieren dedicación o cuidados especiales en 2023 (Tasa respuesta: 77,47%)</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
   </si>
 </sst>
 </file>
@@ -1761,8 +1560,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC64B51-2BAC-4A73-AC27-643D2F65AE9A}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A79A0C-D395-4497-8638-434ECEB47AA5}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1879,10 +1678,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="D4" s="7">
-        <v>13698</v>
+        <v>117218</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1894,10 +1693,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="I4" s="7">
-        <v>14516</v>
+        <v>151887</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1909,10 +1708,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>29</v>
+        <v>262</v>
       </c>
       <c r="N4" s="7">
-        <v>28214</v>
+        <v>269105</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1930,10 +1729,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>72</v>
+        <v>409</v>
       </c>
       <c r="D5" s="7">
-        <v>78743</v>
+        <v>413134</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1945,10 +1744,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>93</v>
+        <v>443</v>
       </c>
       <c r="I5" s="7">
-        <v>82402</v>
+        <v>435677</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1960,10 +1759,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>165</v>
+        <v>852</v>
       </c>
       <c r="N5" s="7">
-        <v>161145</v>
+        <v>848811</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1981,10 +1780,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>85</v>
+        <v>525</v>
       </c>
       <c r="D6" s="7">
-        <v>92441</v>
+        <v>530352</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1996,10 +1795,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>109</v>
+        <v>589</v>
       </c>
       <c r="I6" s="7">
-        <v>96918</v>
+        <v>587564</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2011,10 +1810,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>194</v>
+        <v>1114</v>
       </c>
       <c r="N6" s="7">
-        <v>189359</v>
+        <v>1117916</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2034,10 +1833,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="D7" s="7">
-        <v>103519</v>
+        <v>169517</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2049,10 +1848,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="I7" s="7">
-        <v>137372</v>
+        <v>218295</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2064,10 +1863,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>233</v>
+        <v>359</v>
       </c>
       <c r="N7" s="7">
-        <v>240891</v>
+        <v>387812</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2085,10 +1884,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>337</v>
+        <v>550</v>
       </c>
       <c r="D8" s="7">
-        <v>334392</v>
+        <v>578108</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2100,10 +1899,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>350</v>
+        <v>589</v>
       </c>
       <c r="I8" s="7">
-        <v>353274</v>
+        <v>628305</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2115,10 +1914,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>687</v>
+        <v>1139</v>
       </c>
       <c r="N8" s="7">
-        <v>687666</v>
+        <v>1206413</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2136,10 +1935,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>440</v>
+        <v>704</v>
       </c>
       <c r="D9" s="7">
-        <v>437911</v>
+        <v>747625</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2151,10 +1950,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>480</v>
+        <v>794</v>
       </c>
       <c r="I9" s="7">
-        <v>490646</v>
+        <v>846600</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2166,10 +1965,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>920</v>
+        <v>1498</v>
       </c>
       <c r="N9" s="7">
-        <v>928557</v>
+        <v>1594225</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2189,10 +1988,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="D10" s="7">
-        <v>169517</v>
+        <v>108294</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2204,10 +2003,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="I10" s="7">
-        <v>218295</v>
+        <v>148632</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2219,10 +2018,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>359</v>
+        <v>255</v>
       </c>
       <c r="N10" s="7">
-        <v>387812</v>
+        <v>256926</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2240,10 +2039,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>550</v>
+        <v>390</v>
       </c>
       <c r="D11" s="7">
-        <v>578108</v>
+        <v>405537</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2255,10 +2054,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>589</v>
+        <v>442</v>
       </c>
       <c r="I11" s="7">
-        <v>628305</v>
+        <v>434203</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2270,10 +2069,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1139</v>
+        <v>832</v>
       </c>
       <c r="N11" s="7">
-        <v>1206413</v>
+        <v>839740</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2291,10 +2090,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>704</v>
+        <v>494</v>
       </c>
       <c r="D12" s="7">
-        <v>747625</v>
+        <v>513831</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2306,10 +2105,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>794</v>
+        <v>593</v>
       </c>
       <c r="I12" s="7">
-        <v>846600</v>
+        <v>582835</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2321,10 +2120,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1498</v>
+        <v>1087</v>
       </c>
       <c r="N12" s="7">
-        <v>1594225</v>
+        <v>1096666</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2344,10 +2143,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="D13" s="7">
-        <v>108294</v>
+        <v>143061</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2359,10 +2158,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>151</v>
+        <v>225</v>
       </c>
       <c r="I13" s="7">
-        <v>148632</v>
+        <v>233706</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2374,10 +2173,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>255</v>
+        <v>375</v>
       </c>
       <c r="N13" s="7">
-        <v>256926</v>
+        <v>376768</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2395,10 +2194,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>390</v>
+        <v>563</v>
       </c>
       <c r="D14" s="7">
-        <v>405537</v>
+        <v>529614</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2410,10 +2209,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>442</v>
+        <v>598</v>
       </c>
       <c r="I14" s="7">
-        <v>434203</v>
+        <v>622749</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2425,10 +2224,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>832</v>
+        <v>1161</v>
       </c>
       <c r="N14" s="7">
-        <v>839740</v>
+        <v>1152362</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2446,10 +2245,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>494</v>
+        <v>713</v>
       </c>
       <c r="D15" s="7">
-        <v>513831</v>
+        <v>672675</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2461,10 +2260,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>593</v>
+        <v>823</v>
       </c>
       <c r="I15" s="7">
-        <v>582835</v>
+        <v>856455</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2476,10 +2275,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1087</v>
+        <v>1536</v>
       </c>
       <c r="N15" s="7">
-        <v>1096666</v>
+        <v>1529130</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2493,55 +2292,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>150</v>
+        <v>524</v>
       </c>
       <c r="D16" s="7">
-        <v>143061</v>
+        <v>538090</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>727</v>
+      </c>
+      <c r="I16" s="7">
+        <v>752521</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>225</v>
-      </c>
-      <c r="I16" s="7">
-        <v>233706</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1251</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1290610</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>375</v>
-      </c>
-      <c r="N16" s="7">
-        <v>376768</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,49 +2349,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>563</v>
+        <v>1912</v>
       </c>
       <c r="D17" s="7">
-        <v>529613</v>
+        <v>1926393</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>2072</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2120932</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>598</v>
-      </c>
-      <c r="I17" s="7">
-        <v>622749</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>3984</v>
+      </c>
+      <c r="N17" s="7">
+        <v>4047326</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>1161</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1152362</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,10 +2400,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>713</v>
+        <v>2436</v>
       </c>
       <c r="D18" s="7">
-        <v>672674</v>
+        <v>2464483</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2616,10 +2415,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>823</v>
+        <v>2799</v>
       </c>
       <c r="I18" s="7">
-        <v>856455</v>
+        <v>2873453</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2631,10 +2430,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1536</v>
+        <v>5235</v>
       </c>
       <c r="N18" s="7">
-        <v>1529130</v>
+        <v>5337936</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2647,171 +2446,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>524</v>
-      </c>
-      <c r="D19" s="7">
-        <v>538090</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>727</v>
-      </c>
-      <c r="I19" s="7">
-        <v>752521</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1251</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1290610</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1912</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1926392</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2072</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2120933</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3984</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4047326</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2436</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2464482</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2799</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2873454</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5235</v>
-      </c>
-      <c r="N21" s="7">
-        <v>5337936</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2824,8 +2467,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8173ED69-3D9F-4BD8-A50D-B71E1294CE51}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4306AC0D-6689-45EB-8BCA-75FF7FCC6FF9}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2841,7 +2484,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2942,49 +2585,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>55</v>
+        <v>296</v>
       </c>
       <c r="D4" s="7">
-        <v>49693</v>
+        <v>311445</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>42</v>
+        <v>318</v>
       </c>
       <c r="I4" s="7">
-        <v>49848</v>
+        <v>340952</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>97</v>
+        <v>614</v>
       </c>
       <c r="N4" s="7">
-        <v>99542</v>
+        <v>652397</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,49 +2636,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>46</v>
+        <v>265</v>
       </c>
       <c r="D5" s="7">
-        <v>46568</v>
+        <v>277235</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>49</v>
+        <v>258</v>
       </c>
       <c r="I5" s="7">
-        <v>53573</v>
+        <v>275990</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>95</v>
+        <v>523</v>
       </c>
       <c r="N5" s="7">
-        <v>100140</v>
+        <v>553225</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,10 +2687,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>101</v>
+        <v>561</v>
       </c>
       <c r="D6" s="7">
-        <v>96261</v>
+        <v>588680</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3059,10 +2702,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>91</v>
+        <v>576</v>
       </c>
       <c r="I6" s="7">
-        <v>103421</v>
+        <v>616942</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3074,10 +2717,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>192</v>
+        <v>1137</v>
       </c>
       <c r="N6" s="7">
-        <v>199682</v>
+        <v>1205622</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3097,49 +2740,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>241</v>
+        <v>418</v>
       </c>
       <c r="D7" s="7">
-        <v>261751</v>
+        <v>451281</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>276</v>
+        <v>470</v>
       </c>
       <c r="I7" s="7">
-        <v>291103</v>
+        <v>518653</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>517</v>
+        <v>888</v>
       </c>
       <c r="N7" s="7">
-        <v>552855</v>
+        <v>969934</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,49 +2791,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>219</v>
+        <v>337</v>
       </c>
       <c r="D8" s="7">
-        <v>230668</v>
+        <v>371017</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>209</v>
+        <v>368</v>
       </c>
       <c r="I8" s="7">
-        <v>222418</v>
+        <v>400434</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>428</v>
+        <v>705</v>
       </c>
       <c r="N8" s="7">
-        <v>453085</v>
+        <v>771451</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,10 +2842,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>460</v>
+        <v>755</v>
       </c>
       <c r="D9" s="7">
-        <v>492419</v>
+        <v>822298</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3214,10 +2857,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>485</v>
+        <v>838</v>
       </c>
       <c r="I9" s="7">
-        <v>513521</v>
+        <v>919087</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3229,10 +2872,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>945</v>
+        <v>1593</v>
       </c>
       <c r="N9" s="7">
-        <v>1005940</v>
+        <v>1741385</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3252,49 +2895,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>418</v>
+        <v>298</v>
       </c>
       <c r="D10" s="7">
-        <v>451281</v>
+        <v>324591</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>470</v>
+        <v>366</v>
       </c>
       <c r="I10" s="7">
-        <v>518653</v>
+        <v>398506</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>888</v>
+        <v>664</v>
       </c>
       <c r="N10" s="7">
-        <v>969934</v>
+        <v>723096</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,49 +2946,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>337</v>
+        <v>236</v>
       </c>
       <c r="D11" s="7">
-        <v>371017</v>
+        <v>264262</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>368</v>
+        <v>255</v>
       </c>
       <c r="I11" s="7">
-        <v>400434</v>
+        <v>289749</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
-        <v>705</v>
+        <v>491</v>
       </c>
       <c r="N11" s="7">
-        <v>771451</v>
+        <v>554012</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,10 +2997,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>755</v>
+        <v>534</v>
       </c>
       <c r="D12" s="7">
-        <v>822298</v>
+        <v>588853</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3369,10 +3012,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>838</v>
+        <v>621</v>
       </c>
       <c r="I12" s="7">
-        <v>919087</v>
+        <v>688255</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3384,10 +3027,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1593</v>
+        <v>1155</v>
       </c>
       <c r="N12" s="7">
-        <v>1741385</v>
+        <v>1277108</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3407,49 +3050,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="D13" s="7">
-        <v>324591</v>
+        <v>336332</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>366</v>
+        <v>429</v>
       </c>
       <c r="I13" s="7">
-        <v>398506</v>
+        <v>444338</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
-        <v>664</v>
+        <v>752</v>
       </c>
       <c r="N13" s="7">
-        <v>723096</v>
+        <v>780670</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,49 +3101,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>236</v>
+        <v>395</v>
       </c>
       <c r="D14" s="7">
-        <v>264262</v>
+        <v>412059</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
-        <v>255</v>
+        <v>449</v>
       </c>
       <c r="I14" s="7">
-        <v>289749</v>
+        <v>474959</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
-        <v>491</v>
+        <v>844</v>
       </c>
       <c r="N14" s="7">
-        <v>554012</v>
+        <v>887018</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,10 +3152,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>534</v>
+        <v>718</v>
       </c>
       <c r="D15" s="7">
-        <v>588853</v>
+        <v>748391</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3524,10 +3167,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>621</v>
+        <v>878</v>
       </c>
       <c r="I15" s="7">
-        <v>688255</v>
+        <v>919297</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3539,10 +3182,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1155</v>
+        <v>1596</v>
       </c>
       <c r="N15" s="7">
-        <v>1277108</v>
+        <v>1667688</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3556,55 +3199,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>323</v>
+        <v>1335</v>
       </c>
       <c r="D16" s="7">
-        <v>336332</v>
+        <v>1423649</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
-        <v>429</v>
+        <v>1583</v>
       </c>
       <c r="I16" s="7">
-        <v>444338</v>
+        <v>1702448</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
-        <v>752</v>
+        <v>2918</v>
       </c>
       <c r="N16" s="7">
-        <v>780670</v>
+        <v>3126097</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,49 +3256,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>395</v>
+        <v>1233</v>
       </c>
       <c r="D17" s="7">
-        <v>412059</v>
+        <v>1324573</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="H17" s="7">
-        <v>449</v>
+        <v>1330</v>
       </c>
       <c r="I17" s="7">
-        <v>474959</v>
+        <v>1441133</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="M17" s="7">
-        <v>844</v>
+        <v>2563</v>
       </c>
       <c r="N17" s="7">
-        <v>887018</v>
+        <v>2765706</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,10 +3307,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>718</v>
+        <v>2568</v>
       </c>
       <c r="D18" s="7">
-        <v>748391</v>
+        <v>2748222</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3679,10 +3322,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>878</v>
+        <v>2913</v>
       </c>
       <c r="I18" s="7">
-        <v>919297</v>
+        <v>3143581</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3694,10 +3337,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1596</v>
+        <v>5481</v>
       </c>
       <c r="N18" s="7">
-        <v>1667688</v>
+        <v>5891803</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3710,171 +3353,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1335</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1423649</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1583</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1702448</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2918</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3126097</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1233</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1324573</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1330</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1441133</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2563</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2765706</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2568</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2748222</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2913</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3143581</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5481</v>
-      </c>
-      <c r="N21" s="7">
-        <v>5891803</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3887,8 +3374,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2AA4725-3744-4C3C-AD2E-2A0CF680EADB}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE747267-A396-46DB-A314-3D1DBFB54D22}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3904,7 +3391,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4005,49 +3492,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>37</v>
+        <v>237</v>
       </c>
       <c r="D4" s="7">
-        <v>36660</v>
+        <v>246464</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="H4" s="7">
-        <v>49</v>
+        <v>265</v>
       </c>
       <c r="I4" s="7">
-        <v>49395</v>
+        <v>271713</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>237</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="M4" s="7">
-        <v>86</v>
+        <v>502</v>
       </c>
       <c r="N4" s="7">
-        <v>86055</v>
+        <v>518177</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,49 +3543,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>46</v>
+        <v>256</v>
       </c>
       <c r="D5" s="7">
-        <v>46318</v>
+        <v>259893</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="H5" s="7">
-        <v>50</v>
+        <v>283</v>
       </c>
       <c r="I5" s="7">
-        <v>48562</v>
+        <v>287243</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>119</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
-        <v>96</v>
+        <v>539</v>
       </c>
       <c r="N5" s="7">
-        <v>94880</v>
+        <v>547136</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,10 +3594,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>83</v>
+        <v>493</v>
       </c>
       <c r="D6" s="7">
-        <v>82978</v>
+        <v>506357</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4122,10 +3609,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>548</v>
       </c>
       <c r="I6" s="7">
-        <v>97957</v>
+        <v>558956</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4137,10 +3624,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>182</v>
+        <v>1041</v>
       </c>
       <c r="N6" s="7">
-        <v>180935</v>
+        <v>1065313</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4160,49 +3647,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>200</v>
+        <v>311</v>
       </c>
       <c r="D7" s="7">
-        <v>209803</v>
+        <v>331500</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="H7" s="7">
-        <v>216</v>
+        <v>420</v>
       </c>
       <c r="I7" s="7">
-        <v>222319</v>
+        <v>445382</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="M7" s="7">
-        <v>416</v>
+        <v>731</v>
       </c>
       <c r="N7" s="7">
-        <v>432122</v>
+        <v>776882</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,49 +3698,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>210</v>
+        <v>404</v>
       </c>
       <c r="D8" s="7">
-        <v>213575</v>
+        <v>429883</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="H8" s="7">
-        <v>233</v>
+        <v>421</v>
       </c>
       <c r="I8" s="7">
-        <v>238681</v>
+        <v>455131</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="M8" s="7">
-        <v>443</v>
+        <v>825</v>
       </c>
       <c r="N8" s="7">
-        <v>452256</v>
+        <v>885014</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,10 +3749,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>410</v>
+        <v>715</v>
       </c>
       <c r="D9" s="7">
-        <v>423378</v>
+        <v>761383</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4277,10 +3764,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>449</v>
+        <v>841</v>
       </c>
       <c r="I9" s="7">
-        <v>461000</v>
+        <v>900513</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4292,10 +3779,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>859</v>
+        <v>1556</v>
       </c>
       <c r="N9" s="7">
-        <v>884378</v>
+        <v>1661896</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4315,49 +3802,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>311</v>
+        <v>175</v>
       </c>
       <c r="D10" s="7">
-        <v>331500</v>
+        <v>186804</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="H10" s="7">
-        <v>420</v>
+        <v>248</v>
       </c>
       <c r="I10" s="7">
-        <v>445382</v>
+        <v>262132</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
-        <v>731</v>
+        <v>423</v>
       </c>
       <c r="N10" s="7">
-        <v>776882</v>
+        <v>448936</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,49 +3853,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>404</v>
+        <v>331</v>
       </c>
       <c r="D11" s="7">
-        <v>429883</v>
+        <v>359638</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="H11" s="7">
-        <v>421</v>
+        <v>347</v>
       </c>
       <c r="I11" s="7">
-        <v>455131</v>
+        <v>377824</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>284</v>
+        <v>247</v>
       </c>
       <c r="M11" s="7">
-        <v>825</v>
+        <v>678</v>
       </c>
       <c r="N11" s="7">
-        <v>885014</v>
+        <v>737463</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>285</v>
+        <v>248</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,10 +3904,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>715</v>
+        <v>506</v>
       </c>
       <c r="D12" s="7">
-        <v>761383</v>
+        <v>546442</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4432,10 +3919,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>841</v>
+        <v>595</v>
       </c>
       <c r="I12" s="7">
-        <v>900513</v>
+        <v>639956</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4447,10 +3934,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1556</v>
+        <v>1101</v>
       </c>
       <c r="N12" s="7">
-        <v>1661896</v>
+        <v>1186399</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4470,49 +3957,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>175</v>
+        <v>273</v>
       </c>
       <c r="D13" s="7">
-        <v>186804</v>
+        <v>275351</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="H13" s="7">
-        <v>248</v>
+        <v>373</v>
       </c>
       <c r="I13" s="7">
-        <v>262132</v>
+        <v>407590</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="M13" s="7">
-        <v>423</v>
+        <v>646</v>
       </c>
       <c r="N13" s="7">
-        <v>448936</v>
+        <v>682941</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>296</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,49 +4008,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>331</v>
+        <v>414</v>
       </c>
       <c r="D14" s="7">
-        <v>359638</v>
+        <v>409460</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="H14" s="7">
-        <v>347</v>
+        <v>404</v>
       </c>
       <c r="I14" s="7">
-        <v>377824</v>
+        <v>446107</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="M14" s="7">
-        <v>678</v>
+        <v>818</v>
       </c>
       <c r="N14" s="7">
-        <v>737462</v>
+        <v>855567</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>304</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,10 +4059,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>506</v>
+        <v>687</v>
       </c>
       <c r="D15" s="7">
-        <v>546442</v>
+        <v>684811</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4587,10 +4074,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>595</v>
+        <v>777</v>
       </c>
       <c r="I15" s="7">
-        <v>639956</v>
+        <v>853697</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4602,10 +4089,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1101</v>
+        <v>1464</v>
       </c>
       <c r="N15" s="7">
-        <v>1186398</v>
+        <v>1538508</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4619,55 +4106,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>996</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1040119</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1306</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1386818</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M16" s="7">
+        <v>2302</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2426937</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D16" s="7">
-        <v>275351</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H16" s="7">
-        <v>373</v>
-      </c>
-      <c r="I16" s="7">
-        <v>407590</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="M16" s="7">
-        <v>646</v>
-      </c>
-      <c r="N16" s="7">
-        <v>682941</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>312</v>
-      </c>
       <c r="P16" s="7" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,49 +4163,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>414</v>
+        <v>1405</v>
       </c>
       <c r="D17" s="7">
-        <v>409460</v>
+        <v>1458874</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="H17" s="7">
-        <v>404</v>
+        <v>1455</v>
       </c>
       <c r="I17" s="7">
-        <v>446107</v>
+        <v>1566305</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>317</v>
+        <v>279</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="M17" s="7">
-        <v>818</v>
+        <v>2860</v>
       </c>
       <c r="N17" s="7">
-        <v>855567</v>
+        <v>3025179</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,10 +4214,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>687</v>
+        <v>2401</v>
       </c>
       <c r="D18" s="7">
-        <v>684811</v>
+        <v>2498993</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4742,10 +4229,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>777</v>
+        <v>2761</v>
       </c>
       <c r="I18" s="7">
-        <v>853697</v>
+        <v>2953123</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4757,10 +4244,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1464</v>
+        <v>5162</v>
       </c>
       <c r="N18" s="7">
-        <v>1538508</v>
+        <v>5452116</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4773,171 +4260,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>996</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1040119</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1306</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1386818</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2302</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2426937</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1405</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1458874</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1455</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1566305</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2860</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3025179</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2401</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2498993</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2761</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2953123</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5162</v>
-      </c>
-      <c r="N21" s="7">
-        <v>5452116</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4950,8 +4281,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3022EC-DE5F-4987-B9D8-1F850B94453E}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AACE05-4AB4-4E06-9DDC-221E61EBD024}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4967,7 +4298,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>340</v>
+        <v>285</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5068,49 +4399,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="D4" s="7">
-        <v>11127</v>
+        <v>101088</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>341</v>
+        <v>286</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>342</v>
+        <v>287</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>343</v>
+        <v>288</v>
       </c>
       <c r="H4" s="7">
-        <v>47</v>
+        <v>263</v>
       </c>
       <c r="I4" s="7">
-        <v>21725</v>
+        <v>136452</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>344</v>
+        <v>289</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>345</v>
+        <v>290</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>346</v>
+        <v>291</v>
       </c>
       <c r="M4" s="7">
-        <v>60</v>
+        <v>388</v>
       </c>
       <c r="N4" s="7">
-        <v>32852</v>
+        <v>237541</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>348</v>
+        <v>293</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>349</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,49 +4450,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>74</v>
+        <v>407</v>
       </c>
       <c r="D5" s="7">
-        <v>60640</v>
+        <v>322502</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>350</v>
+        <v>294</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>351</v>
+        <v>295</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>352</v>
+        <v>296</v>
       </c>
       <c r="H5" s="7">
-        <v>149</v>
+        <v>744</v>
       </c>
       <c r="I5" s="7">
-        <v>75098</v>
+        <v>434338</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>353</v>
+        <v>297</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>354</v>
+        <v>298</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>355</v>
+        <v>299</v>
       </c>
       <c r="M5" s="7">
-        <v>223</v>
+        <v>1151</v>
       </c>
       <c r="N5" s="7">
-        <v>135738</v>
+        <v>756840</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>356</v>
+        <v>300</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>357</v>
+        <v>48</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>358</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5170,10 +4501,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>87</v>
+        <v>532</v>
       </c>
       <c r="D6" s="7">
-        <v>71767</v>
+        <v>423590</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5185,10 +4516,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>196</v>
+        <v>1007</v>
       </c>
       <c r="I6" s="7">
-        <v>96823</v>
+        <v>570790</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5200,10 +4531,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>283</v>
+        <v>1539</v>
       </c>
       <c r="N6" s="7">
-        <v>168590</v>
+        <v>994381</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5223,49 +4554,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="D7" s="7">
-        <v>96193</v>
+        <v>163817</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>359</v>
+        <v>302</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>360</v>
+        <v>303</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>361</v>
+        <v>304</v>
       </c>
       <c r="H7" s="7">
-        <v>216</v>
+        <v>401</v>
       </c>
       <c r="I7" s="7">
-        <v>127252</v>
+        <v>249692</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>362</v>
+        <v>305</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>363</v>
+        <v>306</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>364</v>
+        <v>307</v>
       </c>
       <c r="M7" s="7">
-        <v>328</v>
+        <v>592</v>
       </c>
       <c r="N7" s="7">
-        <v>223446</v>
+        <v>413509</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>365</v>
+        <v>308</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>366</v>
+        <v>309</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>367</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,49 +4605,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>333</v>
+        <v>507</v>
       </c>
       <c r="D8" s="7">
-        <v>268163</v>
+        <v>474795</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>368</v>
+        <v>311</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>369</v>
+        <v>312</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>370</v>
+        <v>313</v>
       </c>
       <c r="H8" s="7">
-        <v>595</v>
+        <v>829</v>
       </c>
       <c r="I8" s="7">
-        <v>358516</v>
+        <v>496409</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>371</v>
+        <v>314</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>372</v>
+        <v>315</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>373</v>
+        <v>316</v>
       </c>
       <c r="M8" s="7">
-        <v>928</v>
+        <v>1336</v>
       </c>
       <c r="N8" s="7">
-        <v>626678</v>
+        <v>971204</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>374</v>
+        <v>317</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>376</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,10 +4656,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>445</v>
+        <v>698</v>
       </c>
       <c r="D9" s="7">
-        <v>364356</v>
+        <v>638612</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5340,10 +4671,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>811</v>
+        <v>1230</v>
       </c>
       <c r="I9" s="7">
-        <v>485768</v>
+        <v>746101</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5355,10 +4686,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1256</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>850124</v>
+        <v>1384713</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5378,49 +4709,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>191</v>
+        <v>109</v>
       </c>
       <c r="D10" s="7">
-        <v>180401</v>
+        <v>106376</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>377</v>
+        <v>88</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>378</v>
+        <v>320</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>379</v>
+        <v>321</v>
       </c>
       <c r="H10" s="7">
-        <v>401</v>
+        <v>195</v>
       </c>
       <c r="I10" s="7">
-        <v>282697</v>
+        <v>333130</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>380</v>
+        <v>322</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>381</v>
+        <v>323</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>382</v>
+        <v>324</v>
       </c>
       <c r="M10" s="7">
-        <v>592</v>
+        <v>304</v>
       </c>
       <c r="N10" s="7">
-        <v>463098</v>
+        <v>439505</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>383</v>
+        <v>325</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>40</v>
+        <v>326</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>384</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,49 +4760,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>507</v>
+        <v>397</v>
       </c>
       <c r="D11" s="7">
-        <v>485034</v>
+        <v>380952</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>385</v>
+        <v>97</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>386</v>
+        <v>327</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>387</v>
+        <v>328</v>
       </c>
       <c r="H11" s="7">
-        <v>829</v>
+        <v>659</v>
       </c>
       <c r="I11" s="7">
-        <v>539451</v>
+        <v>449804</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>388</v>
+        <v>329</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>389</v>
+        <v>330</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>390</v>
+        <v>331</v>
       </c>
       <c r="M11" s="7">
-        <v>1336</v>
+        <v>1056</v>
       </c>
       <c r="N11" s="7">
-        <v>1024485</v>
+        <v>830756</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>391</v>
+        <v>332</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>392</v>
+        <v>235</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>48</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,10 +4811,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>698</v>
+        <v>506</v>
       </c>
       <c r="D12" s="7">
-        <v>665435</v>
+        <v>487328</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5495,10 +4826,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1230</v>
+        <v>854</v>
       </c>
       <c r="I12" s="7">
-        <v>822148</v>
+        <v>782934</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5510,10 +4841,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1360</v>
       </c>
       <c r="N12" s="7">
-        <v>1487583</v>
+        <v>1270261</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5533,49 +4864,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="D13" s="7">
-        <v>115580</v>
+        <v>124889</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>393</v>
+        <v>334</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>394</v>
+        <v>335</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>395</v>
+        <v>336</v>
       </c>
       <c r="H13" s="7">
-        <v>195</v>
+        <v>307</v>
       </c>
       <c r="I13" s="7">
-        <v>254515</v>
+        <v>185687</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>396</v>
+        <v>337</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>397</v>
+        <v>338</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>389</v>
+        <v>339</v>
       </c>
       <c r="M13" s="7">
-        <v>304</v>
+        <v>461</v>
       </c>
       <c r="N13" s="7">
-        <v>370096</v>
+        <v>310576</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>340</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>55</v>
+        <v>341</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>398</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,49 +4915,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>397</v>
+        <v>572</v>
       </c>
       <c r="D14" s="7">
-        <v>392307</v>
+        <v>494968</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>399</v>
+        <v>343</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>401</v>
+        <v>345</v>
       </c>
       <c r="H14" s="7">
-        <v>659</v>
+        <v>913</v>
       </c>
       <c r="I14" s="7">
-        <v>454744</v>
+        <v>648200</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>402</v>
+        <v>346</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>403</v>
+        <v>348</v>
       </c>
       <c r="M14" s="7">
-        <v>1056</v>
+        <v>1485</v>
       </c>
       <c r="N14" s="7">
-        <v>847050</v>
+        <v>1143168</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>349</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>404</v>
+        <v>350</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>65</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,10 +4966,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>506</v>
+        <v>726</v>
       </c>
       <c r="D15" s="7">
-        <v>507887</v>
+        <v>619857</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5650,10 +4981,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>854</v>
+        <v>1220</v>
       </c>
       <c r="I15" s="7">
-        <v>709259</v>
+        <v>833887</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5665,10 +4996,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1360</v>
+        <v>1946</v>
       </c>
       <c r="N15" s="7">
-        <v>1217146</v>
+        <v>1453744</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5682,55 +5013,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>154</v>
+        <v>579</v>
       </c>
       <c r="D16" s="7">
-        <v>133986</v>
+        <v>496170</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>406</v>
+        <v>353</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>36</v>
+        <v>354</v>
       </c>
       <c r="H16" s="7">
-        <v>307</v>
+        <v>1166</v>
       </c>
       <c r="I16" s="7">
-        <v>212664</v>
+        <v>904961</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>407</v>
+        <v>355</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>408</v>
+        <v>356</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>409</v>
+        <v>357</v>
       </c>
       <c r="M16" s="7">
-        <v>461</v>
+        <v>1745</v>
       </c>
       <c r="N16" s="7">
-        <v>346651</v>
+        <v>1401131</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>410</v>
+        <v>358</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>411</v>
+        <v>359</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>412</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,49 +5070,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>572</v>
+        <v>1883</v>
       </c>
       <c r="D17" s="7">
-        <v>507433</v>
+        <v>1673217</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>413</v>
+        <v>361</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>46</v>
+        <v>362</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>414</v>
+        <v>363</v>
       </c>
       <c r="H17" s="7">
-        <v>913</v>
+        <v>3145</v>
       </c>
       <c r="I17" s="7">
-        <v>645864</v>
+        <v>2028751</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>415</v>
+        <v>364</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>416</v>
+        <v>365</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>417</v>
+        <v>366</v>
       </c>
       <c r="M17" s="7">
-        <v>1485</v>
+        <v>5028</v>
       </c>
       <c r="N17" s="7">
-        <v>1153297</v>
+        <v>3701968</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>418</v>
+        <v>367</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>419</v>
+        <v>368</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>420</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,10 +5121,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>726</v>
+        <v>2462</v>
       </c>
       <c r="D18" s="7">
-        <v>641419</v>
+        <v>2169387</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5805,10 +5136,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1220</v>
+        <v>4311</v>
       </c>
       <c r="I18" s="7">
-        <v>858528</v>
+        <v>2933712</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5820,10 +5151,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1946</v>
+        <v>6773</v>
       </c>
       <c r="N18" s="7">
-        <v>1499948</v>
+        <v>5103099</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5836,171 +5167,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>579</v>
-      </c>
-      <c r="D19" s="7">
-        <v>537288</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1166</v>
-      </c>
-      <c r="I19" s="7">
-        <v>898854</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1745</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1436142</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1883</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1713576</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3145</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2073673</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5028</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3787249</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2462</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2250864</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>4311</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2972527</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6773</v>
-      </c>
-      <c r="N21" s="7">
-        <v>5223391</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
